--- a/data/VHSuser.xlsx
+++ b/data/VHSuser.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -30,9 +30,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>111111</t>
-  </si>
-  <si>
     <t>16666666666</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>System Manager</t>
+  </si>
+  <si>
+    <t>1111</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,24 +414,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/VHSuser.xlsx
+++ b/data/VHSuser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>System Manager</t>
   </si>
   <si>
-    <t>1111</t>
+    <t>111111</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
